--- a/Data/GazetteerSqKm/GazetteerCombinedAdminLevels/MEX_AdminBoundaries_TabularData.xlsx
+++ b/Data/GazetteerSqKm/GazetteerCombinedAdminLevels/MEX_AdminBoundaries_TabularData.xlsx
@@ -14,16 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="19">
-  <si>
-    <t>OBJECTID_1</t>
-  </si>
-  <si>
-    <t>OBJECTID__</t>
-  </si>
-  <si>
-    <t>Shape__</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="11">
   <si>
     <t>admin0Name_es</t>
   </si>
@@ -49,28 +40,13 @@
     <t>validTo</t>
   </si>
   <si>
-    <t>Shape_Length</t>
-  </si>
-  <si>
-    <t>Shape_Area</t>
-  </si>
-  <si>
-    <t>OBJECTID</t>
-  </si>
-  <si>
     <t>Area_SqKm</t>
   </si>
   <si>
-    <t>Polygon</t>
-  </si>
-  <si>
     <t>México</t>
   </si>
   <si>
     <t>MX</t>
-  </si>
-  <si>
-    <t>&lt;Null&gt;</t>
   </si>
 </sst>
 </file>
@@ -432,13 +408,25 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:O2"/>
+  <dimension ref="A1:I2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
+  <cols>
+    <col min="1" max="1" width="13.7109375" customWidth="1"/>
+    <col min="2" max="2" width="11.7109375" customWidth="1"/>
+    <col min="3" max="3" width="13.7109375" customWidth="1"/>
+    <col min="4" max="5" width="17.7109375" customWidth="1"/>
+    <col min="6" max="7" width="10.7109375" customWidth="1"/>
+    <col min="8" max="8" width="7.7109375" customWidth="1"/>
+    <col min="9" max="9" width="9.7109375" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:15">
+    <row r="1" spans="1:9">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -466,69 +454,21 @@
       <c r="I1" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="J1" s="1" t="s">
+    </row>
+    <row r="2" spans="1:9">
+      <c r="A2" t="s">
         <v>9</v>
       </c>
-      <c r="K1" s="1" t="s">
+      <c r="B2" t="s">
         <v>10</v>
       </c>
-      <c r="L1" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="M1" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="N1" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="O1" s="1" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="2" spans="1:15">
-      <c r="A2">
-        <v>1</v>
-      </c>
-      <c r="B2">
-        <v>1</v>
-      </c>
-      <c r="C2" t="s">
-        <v>15</v>
-      </c>
-      <c r="D2" t="s">
-        <v>16</v>
-      </c>
-      <c r="E2" t="s">
-        <v>17</v>
-      </c>
-      <c r="F2" t="s">
-        <v>18</v>
-      </c>
-      <c r="G2" t="s">
-        <v>18</v>
-      </c>
-      <c r="H2" t="s">
-        <v>18</v>
-      </c>
-      <c r="I2" s="2">
+      <c r="F2" s="2">
         <v>44005</v>
       </c>
-      <c r="J2" s="2">
+      <c r="G2" s="2">
         <v>44365</v>
       </c>
-      <c r="K2" t="s">
-        <v>18</v>
-      </c>
-      <c r="L2">
-        <v>354.605876</v>
-      </c>
-      <c r="M2">
-        <v>173.513956</v>
-      </c>
-      <c r="N2">
-        <v>1</v>
-      </c>
-      <c r="O2">
+      <c r="I2">
         <v>1950021.5</v>
       </c>
     </row>

--- a/Data/GazetteerSqKm/GazetteerCombinedAdminLevels/MEX_AdminBoundaries_TabularData.xlsx
+++ b/Data/GazetteerSqKm/GazetteerCombinedAdminLevels/MEX_AdminBoundaries_TabularData.xlsx
@@ -7,7 +7,7 @@
     <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
   </bookViews>
   <sheets>
-    <sheet name="Admin0" sheetId="1" r:id="rId1"/>
+    <sheet name="ADM0" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
@@ -16,31 +16,31 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="11">
   <si>
-    <t>admin0Name_es</t>
-  </si>
-  <si>
-    <t>admin0Pcode</t>
-  </si>
-  <si>
-    <t>admin0RefName</t>
-  </si>
-  <si>
-    <t>admin0AltName1_es</t>
-  </si>
-  <si>
-    <t>admin0AltName2_es</t>
-  </si>
-  <si>
-    <t>date</t>
-  </si>
-  <si>
-    <t>validOn</t>
-  </si>
-  <si>
-    <t>validTo</t>
-  </si>
-  <si>
-    <t>Area_SqKm</t>
+    <t>ADM0_ES</t>
+  </si>
+  <si>
+    <t>ADM0_PCODE</t>
+  </si>
+  <si>
+    <t>ADM0_REF</t>
+  </si>
+  <si>
+    <t>ADM0ALT1_ES</t>
+  </si>
+  <si>
+    <t>ADM0ALT2_ES</t>
+  </si>
+  <si>
+    <t>DATE</t>
+  </si>
+  <si>
+    <t>VALIDON</t>
+  </si>
+  <si>
+    <t>VALIDTO</t>
+  </si>
+  <si>
+    <t>AREA_SQKM</t>
   </si>
   <si>
     <t>México</t>
@@ -416,15 +416,6 @@
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
-  <cols>
-    <col min="1" max="1" width="13.7109375" customWidth="1"/>
-    <col min="2" max="2" width="11.7109375" customWidth="1"/>
-    <col min="3" max="3" width="13.7109375" customWidth="1"/>
-    <col min="4" max="5" width="17.7109375" customWidth="1"/>
-    <col min="6" max="7" width="10.7109375" customWidth="1"/>
-    <col min="8" max="8" width="7.7109375" customWidth="1"/>
-    <col min="9" max="9" width="9.7109375" customWidth="1"/>
-  </cols>
   <sheetData>
     <row r="1" spans="1:9">
       <c r="A1" s="1" t="s">
